--- a/data/token/NFT.xlsx
+++ b/data/token/NFT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>2021-10-08</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -710,6 +716,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>4.3E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>4.1E-07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
